--- a/Apliccativos Remoto/IOARR COVID.xlsx
+++ b/Apliccativos Remoto/IOARR COVID.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC477\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RepositorioORFEI\Gestion-ORFEI\Apliccativos Remoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB955E1A-7DC1-4035-B521-0942C58037A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="8055"/>
+    <workbookView xWindow="16008" yWindow="96" windowWidth="14628" windowHeight="16344" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t xml:space="preserve">ADQUISICION DE MONITOR MULTI PARAMETRO, CAMA CLINICA RODABLE, ASPIRADOR DE SECRECIONES Y PULSIOXIMETRO; ADEMÁS DE OTROS ACTIVOS EN EL(LA) EESS TAMBOBAMBA - TAMBOBAMBA DISTRITO DE TAMBOBAMBA, PROVINCIA COTABAMBAS, </t>
-  </si>
-  <si>
     <t>IOARR “ADQUISICION DE MONITOR MULTI PARAMETRO, CAMA CLINICA RODABLE, ASPIRADOR DE SECRECIONES Y PULSIOXIMETRO; ADEMÁS DE OTROS ACTIVOS EN EL(LA) EESS SAN CAMILO DE LELIS (CHUQUIBAMBILLA) - CHUQUIBAMBILLA EN LA LOCALIDAD CHUQUIBAMBILLA, DISTRITO DE CHUQUIBAMBILLA, PROVINCIA GRAU, DEPARTAMENTO APURIMAC”  CODIGO UNICO: 2489444</t>
   </si>
   <si>
@@ -42,12 +40,15 @@
   </si>
   <si>
     <t>IOARR “ADQUISICION DE MONITOR MULTI PARAMETRO, CAMA CLINICA RODABLE, ASPIRADOR DE SECRECIONES Y PULSIOXIMETRO; ADEMÁS DE OTROS ACTIVOS EN EL(LA) EESS HUACCANA - HUACCANA DISTRITO DE HUACCANA, PROVINCIA CHINCHEROS, DEPARTAMENTO APURIMAC” codigo unico: 2489378</t>
+  </si>
+  <si>
+    <t>ADQUISICION DE MONITOR MULTI PARAMETRO, CAMA CLINICA RODABLE, ASPIRADOR DE SECRECIONES Y PULSIOXIMETRO; ADEMÁS DE OTROS ACTIVOS EN EL(LA) EESS TAMBOBAMBA - TAMBOBAMBA DISTRITO DE TAMBOBAMBA, PROVINCIA COTABAMBAS, DEPARTAMENTO DE APURIMAC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -92,11 +93,13 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -377,43 +380,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="137.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="59.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:1" ht="59.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1" ht="81.599999999999994" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:1" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:1" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
